--- a/pred_ohlcv/54_21/2020-01-16 AOA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 AOA ohlcv.xlsx
@@ -2290,7 +2290,7 @@
         <v>4602856.920240565</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>5615234.797640565</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>5615234.797640565</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>5615234.797640565</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>3432499.917640565</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>7064896.327640565</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>5153221.447640565</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>6051752.447640565</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>6419072.947640566</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>7044834.892540566</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>9377285.272540566</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>6175477.392540566</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>5675654.861240566</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>4089772.691240566</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>6738689.571240566</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>4720567.691240566</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>4720107.744640565</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>6325475.744640565</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>5054441.721340565</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>6527687.281740565</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>5060074.281740565</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>5059091.380940565</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>5803364.380940565</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>6570817.260940565</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-32879743.75466943</v>
       </c>
       <c r="H397">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-32875450.61181229</v>
       </c>
       <c r="H398">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-32875450.61181229</v>
       </c>
       <c r="H399">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-32875450.61181229</v>
       </c>
       <c r="H400">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-32875450.61181229</v>
       </c>
       <c r="H401">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-32875450.61181229</v>
       </c>
       <c r="H402">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-32875450.61181229</v>
       </c>
       <c r="H403">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-32884910.37781228</v>
       </c>
       <c r="H404">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-32884910.37781228</v>
       </c>
       <c r="H405">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-32884910.37781228</v>
       </c>
       <c r="H406">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-32884624.37781228</v>
       </c>
       <c r="H408">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-32764902.28611229</v>
       </c>
       <c r="H413">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-33434990.28611229</v>
       </c>
       <c r="H414">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-33434640.71941229</v>
       </c>
       <c r="H415">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-34024640.71941228</v>
       </c>
       <c r="H416">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-34456291.11791229</v>
       </c>
       <c r="H417">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-32459963.57691229</v>
       </c>
       <c r="H420">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-35802790.57691228</v>
       </c>
       <c r="H421">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-35802790.57691228</v>
       </c>
       <c r="H422">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-35835390.71891228</v>
       </c>
       <c r="H424">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-35128958.83891228</v>
       </c>
       <c r="H429">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>-45765987.12204704</v>
       </c>
       <c r="H510">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="511" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-16 AOA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 AOA ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>1527385.197240562</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-2053560.682759438</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-2309489.122859438</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-2628105.318759438</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-2921824.040459438</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-2921824.040459438</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-2921824.040459438</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-7818.072959435754</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>4602856.920240565</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>5615234.797640565</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>3432499.917640565</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>7043819.447640566</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>7044834.892540566</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>9377285.272540566</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>6175477.392540566</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>5677510.861240566</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>5675654.861240566</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>4089772.691240566</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>6738689.571240566</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>4720567.691240566</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>4720107.744640565</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>6325475.744640565</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>5054441.721340565</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>6527687.281740565</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>5060074.281740565</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>5059091.380940565</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>5803364.380940565</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>6570817.260940565</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>5530202.045540565</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>5126396.754840565</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>1280152.299740565</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>1286716.984940565</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-32673331.84106943</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-32673331.84106943</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-32729893.29526943</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-32767355.91006943</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-32687355.91006943</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-32879743.75466943</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-32875450.61181229</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-32875450.61181229</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-32875450.61181229</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-32875450.61181229</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-32875450.61181229</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-32875450.61181229</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-32884910.37781228</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-32884910.37781228</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-32884910.37781228</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-32884624.37781228</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-32764902.28611229</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-33434990.28611229</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-33434640.71941229</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-34024640.71941228</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-34456291.11791229</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-32459963.57691229</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-35802790.57691228</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-35802790.57691228</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-35835390.71891228</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-34339968.83891228</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-35129243.83891228</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-35128958.83891228</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-35075996.90691228</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-35075996.90691228</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-35075996.90691228</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-31876931.02691228</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>-45710996.13034704</v>
       </c>
       <c r="H505">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>-45926277.53274704</v>
       </c>
       <c r="H506">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>-45770604.56994703</v>
       </c>
       <c r="H507">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>-45770604.56994703</v>
       </c>
       <c r="H508">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>-45765987.12204704</v>
       </c>
       <c r="H509">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>-45765987.12204704</v>
       </c>
       <c r="H510">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>-45745663.30134704</v>
       </c>
       <c r="H511">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>-45745663.30134704</v>
       </c>
       <c r="H512">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
